--- a/Examples/pcb/pcb_model20a.xlsx
+++ b/Examples/pcb/pcb_model20a.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F100EE8-5722-4C62-8049-C374BB390443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F461F39-3AB4-4336-A7BE-B58AC648658E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25035" windowHeight="15480" activeTab="2" xr2:uid="{A9C97417-A965-48B1-94A1-435A349BC83A}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="25740" windowHeight="14700" activeTab="3" xr2:uid="{A9C97417-A965-48B1-94A1-435A349BC83A}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="WasteAllocation" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$E$1</definedName>
+    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$D$1</definedName>
     <definedName name="cgam_sample" localSheetId="5">Exergy!$A$1:$C$8</definedName>
     <definedName name="tgas_fmt" localSheetId="4">Format!$A$1:$D$7</definedName>
   </definedNames>
@@ -13260,7 +13260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40CA48ED-E380-4DD7-8A1E-002FDB371488}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -13896,17 +13896,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7769AD97-85AB-4F2F-A6CF-EF3CDE3A1829}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="1"/>
     <col min="8" max="8" width="2.140625" style="1" customWidth="1"/>
@@ -13921,7 +13921,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>176</v>
@@ -13930,7 +13930,7 @@
         <v>175</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -13938,7 +13938,7 @@
         <v>174</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>173</v>
+        <v>7</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>172</v>
@@ -13947,7 +13947,7 @@
         <v>171</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -13955,7 +13955,7 @@
         <v>170</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>168</v>
@@ -13964,7 +13964,7 @@
         <v>76</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -13972,7 +13972,7 @@
         <v>167</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>166</v>
+        <v>7</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>165</v>
@@ -13981,7 +13981,7 @@
         <v>84</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -13989,7 +13989,7 @@
         <v>164</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>163</v>
+        <v>7</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>162</v>
@@ -13998,7 +13998,7 @@
         <v>90</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -14006,7 +14006,7 @@
         <v>161</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>159</v>
@@ -14015,7 +14015,7 @@
         <v>92</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -14023,7 +14023,7 @@
         <v>158</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>157</v>
+        <v>7</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>156</v>
@@ -14032,7 +14032,7 @@
         <v>155</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -14040,7 +14040,7 @@
         <v>154</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>153</v>
+        <v>7</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>152</v>
@@ -14049,7 +14049,7 @@
         <v>98</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>7</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -14057,7 +14057,7 @@
         <v>151</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>149</v>
@@ -14066,7 +14066,7 @@
         <v>115</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -14074,7 +14074,7 @@
         <v>148</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>146</v>
@@ -14083,7 +14083,7 @@
         <v>145</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -14091,7 +14091,7 @@
         <v>144</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>142</v>
@@ -14100,7 +14100,7 @@
         <v>141</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>7</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -14108,7 +14108,7 @@
         <v>140</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>202</v>
@@ -14117,7 +14117,7 @@
         <v>119</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -14125,7 +14125,7 @@
         <v>138</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>203</v>
@@ -14134,7 +14134,7 @@
         <v>120</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -14142,7 +14142,7 @@
         <v>136</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>135</v>
+        <v>7</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>134</v>
@@ -14151,7 +14151,7 @@
         <v>121</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -14159,7 +14159,7 @@
         <v>133</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>80</v>
@@ -14168,7 +14168,7 @@
         <v>122</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -14176,7 +14176,7 @@
         <v>131</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>100</v>
@@ -14185,7 +14185,7 @@
         <v>124</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -14193,7 +14193,7 @@
         <v>129</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>127</v>
@@ -14202,7 +14202,7 @@
         <v>126</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
